--- a/UC12/_MiniProjeto/BD/Dicionario.xlsx
+++ b/UC12/_MiniProjeto/BD/Dicionario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.lhjunior\source\repos\N8\UC12\_MiniProjeto\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.lhjunior\source\repos\N8\N8\UC12\_MiniProjeto\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C75C2C-38B7-4301-8EF1-8AF63890E87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CD53D-424D-4C71-AFCC-CD210F4C571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E66AD8F5-5D99-49CF-A495-A014664F6C3D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>tabela</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>txtID</t>
+  </si>
+  <si>
+    <t>txtNome</t>
+  </si>
+  <si>
+    <t>txtLogin</t>
+  </si>
+  <si>
+    <t>txtSenha</t>
+  </si>
+  <si>
+    <t>txtCpf</t>
+  </si>
+  <si>
+    <t>txtObs</t>
+  </si>
+  <si>
+    <t>cboStatus</t>
   </si>
 </sst>
 </file>
@@ -851,8 +872,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>68640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Tinta 10">
@@ -871,7 +892,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Tinta 10">
@@ -916,8 +937,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>97080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Tinta 11">
@@ -936,7 +957,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Tinta 11">
@@ -981,8 +1002,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>73320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Tinta 16">
@@ -1001,7 +1022,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Tinta 16">
@@ -1046,8 +1067,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>82680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Tinta 18">
@@ -1066,7 +1087,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Tinta 18">
@@ -1111,8 +1132,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Tinta 19">
@@ -1131,7 +1152,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Tinta 19">
@@ -1176,8 +1197,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>73680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Tinta 25">
@@ -1196,7 +1217,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Tinta 25">
@@ -1241,8 +1262,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>86280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Tinta 28">
@@ -1261,7 +1282,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Tinta 28">
@@ -1306,8 +1327,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>120120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Tinta 29">
@@ -1326,7 +1347,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Tinta 29">
@@ -1371,8 +1392,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Tinta 30">
@@ -1391,7 +1412,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Tinta 30">
@@ -1436,8 +1457,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>125520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Tinta 31">
@@ -1456,7 +1477,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Tinta 31">
@@ -1501,8 +1522,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>154920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Tinta 36">
@@ -1521,7 +1542,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Tinta 36">
@@ -1566,8 +1587,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>132720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Tinta 39">
@@ -1586,7 +1607,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Tinta 39">
@@ -1757,8 +1778,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>42720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Tinta 50">
@@ -1777,7 +1798,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Tinta 50">
@@ -1822,8 +1843,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>71880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Tinta 55">
@@ -1842,7 +1863,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Tinta 55">
@@ -1887,8 +1908,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>63600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="59" name="Tinta 58">
@@ -1907,7 +1928,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="59" name="Tinta 58">
@@ -1952,8 +1973,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>136320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Tinta 60">
@@ -1972,7 +1993,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Tinta 60">
@@ -2017,8 +2038,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>177960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Tinta 61">
@@ -2037,7 +2058,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Tinta 61">
@@ -2082,8 +2103,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>102840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Tinta 62">
@@ -2102,7 +2123,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Tinta 62">
@@ -2147,8 +2168,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>16620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Tinta 67">
@@ -2167,7 +2188,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Tinta 67">
@@ -2212,8 +2233,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>148200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Tinta 69">
@@ -2232,7 +2253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Tinta 69">
@@ -3133,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144A3C83-53BE-434B-B2E7-F71505862D7A}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:F43"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3168,7 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3194,8 +3215,11 @@
       <c r="F3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -3208,8 +3232,11 @@
       <c r="F4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -3225,8 +3252,11 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -3239,8 +3269,11 @@
       <c r="F6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -3256,8 +3289,11 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -3270,8 +3306,11 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -3281,8 +3320,11 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3310,7 +3352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3330,7 +3372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -3347,7 +3389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -3361,7 +3403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>

--- a/UC12/_MiniProjeto/BD/Dicionario.xlsx
+++ b/UC12/_MiniProjeto/BD/Dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.lhjunior\source\repos\N8\N8\UC12\_MiniProjeto\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0CD53D-424D-4C71-AFCC-CD210F4C571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDFFDB3-DB02-4023-B2FD-6B632CB861CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E66AD8F5-5D99-49CF-A495-A014664F6C3D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Dicioario" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="66">
   <si>
     <t>tabela</t>
   </si>
@@ -3157,7 +3158,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,4 +4452,76 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6E514-FC45-4D2B-A6FD-AAA5A7ABC8B7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="str">
+        <f>""""&amp;A1&amp;",""+"</f>
+        <v>"nome_usuario,"+</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B6" si="0">""""&amp;A2&amp;",""+"</f>
+        <v>"login_usuario,"+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"senha_usuario,"+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"cpf_usuario,"+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>"obs_usuario,"+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>"status_usuario,"+</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>